--- a/teaching/traditional_assets/database/data/sri_lanka/sri_lanka_insurance_life.xlsx
+++ b/teaching/traditional_assets/database/data/sri_lanka/sri_lanka_insurance_life.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ6"/>
+  <dimension ref="A1:AQ7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,46 +591,46 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.233</v>
+        <v>0.154</v>
       </c>
       <c r="E2">
-        <v>0.05695</v>
+        <v>-0.08539999999999999</v>
       </c>
       <c r="G2">
-        <v>0.07060882538589545</v>
+        <v>0.06677648135438115</v>
       </c>
       <c r="H2">
-        <v>0.07060882538589545</v>
+        <v>0.06677648135438115</v>
       </c>
       <c r="I2">
-        <v>0.06460812277322922</v>
+        <v>0.06262182566918326</v>
       </c>
       <c r="J2">
-        <v>0.05591933226475521</v>
+        <v>0.05344539068086505</v>
       </c>
       <c r="K2">
-        <v>14.035</v>
+        <v>7.164</v>
       </c>
       <c r="L2">
-        <v>0.08053594996270155</v>
+        <v>0.03277968428277282</v>
       </c>
       <c r="M2">
-        <v>5.6</v>
+        <v>7.19</v>
       </c>
       <c r="N2">
-        <v>0.04086398131932283</v>
+        <v>0.04363658432967166</v>
       </c>
       <c r="O2">
-        <v>0.3990024937655861</v>
+        <v>1.003629257398102</v>
       </c>
       <c r="P2">
-        <v>5.6</v>
+        <v>7.19</v>
       </c>
       <c r="Q2">
-        <v>0.04086398131932283</v>
+        <v>0.04363658432967166</v>
       </c>
       <c r="R2">
-        <v>0.3990024937655861</v>
+        <v>1.003629257398102</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -639,73 +639,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>14.825</v>
+        <v>11.099</v>
       </c>
       <c r="V2">
-        <v>0.1081800934033859</v>
+        <v>0.06736056320932209</v>
       </c>
       <c r="W2">
-        <v>0.1061633541392904</v>
+        <v>0.0551526717557252</v>
       </c>
       <c r="X2">
-        <v>0.1355597460132944</v>
+        <v>0.1413494804821219</v>
       </c>
       <c r="Y2">
-        <v>-0.029396391874004</v>
+        <v>-0.08619680872639671</v>
       </c>
       <c r="Z2">
-        <v>1.299390636061256</v>
+        <v>1.156385917013239</v>
       </c>
       <c r="AA2">
-        <v>0.05192349111930596</v>
+        <v>0.05477415781032919</v>
       </c>
       <c r="AB2">
-        <v>0.124833648698504</v>
+        <v>0.1283252456543181</v>
       </c>
       <c r="AC2">
-        <v>-0.07293501001297104</v>
+        <v>-0.07355108784398889</v>
       </c>
       <c r="AD2">
-        <v>34.129</v>
+        <v>47.609</v>
       </c>
       <c r="AE2">
-        <v>6.043712221546722</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>40.17271222154672</v>
+        <v>47.609</v>
       </c>
       <c r="AG2">
-        <v>25.34771222154671</v>
+        <v>36.51000000000001</v>
       </c>
       <c r="AH2">
-        <v>0.2266920454968481</v>
+        <v>0.2241699979753177</v>
       </c>
       <c r="AI2">
-        <v>0.2219208392612132</v>
+        <v>0.1949917881380576</v>
       </c>
       <c r="AJ2">
-        <v>0.1560937824345025</v>
+        <v>0.1813891096979332</v>
       </c>
       <c r="AK2">
-        <v>0.1525154100061102</v>
+        <v>0.1566549386424097</v>
       </c>
       <c r="AL2">
-        <v>0.017</v>
+        <v>0.411</v>
       </c>
       <c r="AM2">
-        <v>0.017</v>
+        <v>0.411</v>
       </c>
       <c r="AN2">
-        <v>2.504513098994643</v>
+        <v>3.356291857596053</v>
       </c>
       <c r="AO2">
-        <v>641.6470588235293</v>
+        <v>33.2992700729927</v>
       </c>
       <c r="AP2">
-        <v>1.86010950477337</v>
+        <v>2.573845611561509</v>
       </c>
       <c r="AQ2">
-        <v>641.6470588235293</v>
+        <v>33.2992700729927</v>
       </c>
     </row>
     <row r="3">
@@ -725,25 +725,28 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.397</v>
+        <v>0.314</v>
+      </c>
+      <c r="E3">
+        <v>0.391</v>
       </c>
       <c r="G3">
-        <v>0.1263157894736842</v>
+        <v>0.181651376146789</v>
       </c>
       <c r="H3">
-        <v>0.1263157894736842</v>
+        <v>0.181651376146789</v>
       </c>
       <c r="I3">
-        <v>0.1242105263157895</v>
+        <v>0.1651376146788991</v>
       </c>
       <c r="J3">
-        <v>0.1242105263157895</v>
+        <v>0.1185105234754452</v>
       </c>
       <c r="K3">
-        <v>2.83</v>
+        <v>1.22</v>
       </c>
       <c r="L3">
-        <v>0.2978947368421053</v>
+        <v>0.1119266055045871</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -767,67 +770,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>3.41</v>
+        <v>3.2</v>
       </c>
       <c r="V3">
-        <v>0.4864479315263909</v>
+        <v>0.3755868544600939</v>
       </c>
       <c r="W3">
-        <v>0.4879310344827587</v>
+        <v>0.148599269183922</v>
       </c>
       <c r="X3">
-        <v>0.1313286116210084</v>
+        <v>0.1343014845048497</v>
       </c>
       <c r="Y3">
-        <v>0.3566024228617503</v>
+        <v>0.01429778467907231</v>
       </c>
       <c r="Z3">
-        <v>1.979166666666667</v>
+        <v>1.957263422517507</v>
       </c>
       <c r="AA3">
-        <v>0.2458333333333333</v>
+        <v>0.2319563127818913</v>
       </c>
       <c r="AB3">
-        <v>0.1243256245957973</v>
+        <v>0.1268972576021954</v>
       </c>
       <c r="AC3">
-        <v>0.121507708737536</v>
+        <v>0.1050590551796959</v>
       </c>
       <c r="AD3">
-        <v>0.769</v>
+        <v>0.965</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.769</v>
+        <v>0.965</v>
       </c>
       <c r="AG3">
-        <v>-2.641</v>
+        <v>-2.235</v>
       </c>
       <c r="AH3">
-        <v>0.09885589407378841</v>
+        <v>0.1017395888244597</v>
       </c>
       <c r="AI3">
-        <v>0.08564428110034525</v>
+        <v>0.09391727493917275</v>
       </c>
       <c r="AJ3">
-        <v>-0.6044861524376288</v>
+        <v>-0.3556085918854416</v>
       </c>
       <c r="AK3">
-        <v>-0.4742323576943795</v>
+        <v>-0.3159010600706714</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>0.103</v>
       </c>
       <c r="AM3">
-        <v>0</v>
+        <v>0.103</v>
       </c>
       <c r="AN3">
-        <v>0.5825757575757575</v>
+        <v>0.4974226804123711</v>
+      </c>
+      <c r="AO3">
+        <v>17.47572815533981</v>
       </c>
       <c r="AP3">
-        <v>-2.000757575757576</v>
+        <v>-1.152061855670103</v>
+      </c>
+      <c r="AQ3">
+        <v>17.47572815533981</v>
       </c>
     </row>
     <row r="4">
@@ -847,46 +856,46 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.233</v>
+        <v>0.128</v>
       </c>
       <c r="E4">
-        <v>0.0539</v>
+        <v>-0.135</v>
       </c>
       <c r="G4">
-        <v>0.1357142857142857</v>
+        <v>0.1068616422947131</v>
       </c>
       <c r="H4">
-        <v>0.1357142857142857</v>
+        <v>0.1068616422947131</v>
       </c>
       <c r="I4">
-        <v>0.119047619047619</v>
+        <v>0.09707536557930259</v>
       </c>
       <c r="J4">
-        <v>0.08879423328964613</v>
+        <v>0.06607826934254576</v>
       </c>
       <c r="K4">
-        <v>8.119999999999999</v>
+        <v>6.31</v>
       </c>
       <c r="L4">
-        <v>0.09666666666666665</v>
+        <v>0.07097862767154105</v>
       </c>
       <c r="M4">
-        <v>5.6</v>
+        <v>7.19</v>
       </c>
       <c r="N4">
-        <v>0.05223880597014925</v>
+        <v>0.07435367114788004</v>
       </c>
       <c r="O4">
-        <v>0.6896551724137931</v>
+        <v>1.13946117274168</v>
       </c>
       <c r="P4">
-        <v>5.6</v>
+        <v>7.19</v>
       </c>
       <c r="Q4">
-        <v>0.05223880597014925</v>
+        <v>0.07435367114788004</v>
       </c>
       <c r="R4">
-        <v>0.6896551724137931</v>
+        <v>1.13946117274168</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -895,55 +904,55 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>2.88</v>
+        <v>3.18</v>
       </c>
       <c r="V4">
-        <v>0.02686567164179104</v>
+        <v>0.03288521199586349</v>
       </c>
       <c r="W4">
-        <v>0.1067017082785808</v>
+        <v>0.08538565629228687</v>
       </c>
       <c r="X4">
-        <v>0.1248165971252327</v>
+        <v>0.1255380782952597</v>
       </c>
       <c r="Y4">
-        <v>-0.0181148888466519</v>
+        <v>-0.04015242200297284</v>
       </c>
       <c r="Z4">
-        <v>1.113910621933431</v>
+        <v>1.210347174948945</v>
       </c>
       <c r="AA4">
-        <v>0.09890883962777186</v>
+        <v>0.07997764662426574</v>
       </c>
       <c r="AB4">
-        <v>0.1233300847003553</v>
+        <v>0.1250330368402513</v>
       </c>
       <c r="AC4">
-        <v>-0.02442124507258341</v>
+        <v>-0.04505539021598556</v>
       </c>
       <c r="AD4">
-        <v>2.43</v>
+        <v>0.769</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>2.43</v>
+        <v>0.769</v>
       </c>
       <c r="AG4">
-        <v>-0.4499999999999997</v>
+        <v>-2.411</v>
       </c>
       <c r="AH4">
-        <v>0.02216546565721062</v>
+        <v>0.007889688003365172</v>
       </c>
       <c r="AI4">
-        <v>0.03183545132975239</v>
+        <v>0.009568365912229841</v>
       </c>
       <c r="AJ4">
-        <v>-0.004215456674473065</v>
+        <v>-0.02557032103426699</v>
       </c>
       <c r="AK4">
-        <v>-0.006126616746085768</v>
+        <v>-0.03123502053401392</v>
       </c>
       <c r="AL4">
         <v>0</v>
@@ -952,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="AN4">
-        <v>0.2209090909090909</v>
+        <v>0.08277717976318623</v>
       </c>
       <c r="AP4">
-        <v>-0.04090909090909089</v>
+        <v>-0.2595263724434876</v>
       </c>
     </row>
     <row r="5">
@@ -966,7 +975,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Softlogic Capital PLC (COSE:SCAP.N0000)</t>
+          <t>Janashakthi Insurance PLC (COSE:JINS.N0000)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -975,28 +984,28 @@
         </is>
       </c>
       <c r="D5">
-        <v>0.13</v>
+        <v>-0.09539999999999998</v>
       </c>
       <c r="E5">
-        <v>0.06</v>
+        <v>-0.08539999999999999</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.09640718562874252</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.09640718562874252</v>
       </c>
       <c r="I5">
-        <v>0.004708546322931041</v>
+        <v>0.1017964071856287</v>
       </c>
       <c r="J5">
-        <v>0.003372216033184899</v>
+        <v>0.08845862491883702</v>
       </c>
       <c r="K5">
-        <v>3.38</v>
+        <v>2.89</v>
       </c>
       <c r="L5">
-        <v>0.0453083109919571</v>
+        <v>0.08652694610778444</v>
       </c>
       <c r="M5">
         <v>-0</v>
@@ -1020,67 +1029,73 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>8.130000000000001</v>
+        <v>1.18</v>
       </c>
       <c r="V5">
-        <v>0.3889952153110048</v>
+        <v>0.03224043715846994</v>
       </c>
       <c r="W5">
-        <v>0.105625</v>
+        <v>0.0551526717557252</v>
       </c>
       <c r="X5">
-        <v>0.2539483664069649</v>
+        <v>0.1423605509213477</v>
       </c>
       <c r="Y5">
-        <v>-0.1483233664069649</v>
+        <v>-0.0872078791656225</v>
       </c>
       <c r="Z5">
-        <v>1.464361287131483</v>
+        <v>0.6192065257693734</v>
       </c>
       <c r="AA5">
-        <v>0.00493814261084006</v>
+        <v>0.05477415781032919</v>
       </c>
       <c r="AB5">
-        <v>0.1263869175641987</v>
+        <v>0.1283252456543181</v>
       </c>
       <c r="AC5">
-        <v>-0.1214487749533587</v>
+        <v>-0.07355108784398889</v>
       </c>
       <c r="AD5">
-        <v>30.5</v>
+        <v>7.69</v>
       </c>
       <c r="AE5">
-        <v>6.043712221546722</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>36.54371222154672</v>
+        <v>7.69</v>
       </c>
       <c r="AG5">
-        <v>28.41371222154672</v>
+        <v>6.510000000000001</v>
       </c>
       <c r="AH5">
-        <v>0.6361655751043095</v>
+        <v>0.1736283585459472</v>
       </c>
       <c r="AI5">
-        <v>0.3948805525983465</v>
+        <v>0.1275501741582352</v>
       </c>
       <c r="AJ5">
-        <v>0.5761827885496698</v>
+        <v>0.151009046624913</v>
       </c>
       <c r="AK5">
-        <v>0.3366006715469869</v>
+        <v>0.110133649128743</v>
       </c>
       <c r="AL5">
-        <v>0</v>
+        <v>0.263</v>
       </c>
       <c r="AM5">
-        <v>0</v>
+        <v>0.263</v>
       </c>
       <c r="AN5">
-        <v>19.55128205128205</v>
+        <v>2.496753246753247</v>
+      </c>
+      <c r="AO5">
+        <v>12.92775665399239</v>
       </c>
       <c r="AP5">
-        <v>18.21391809073507</v>
+        <v>2.113636363636364</v>
+      </c>
+      <c r="AQ5">
+        <v>12.92775665399239</v>
       </c>
     </row>
     <row r="6">
@@ -1091,121 +1106,237 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>Softlogic Capital PLC (COSE:SCAP.N0000)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Insurance (Life)</t>
+        </is>
+      </c>
+      <c r="D6">
+        <v>0.18</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>-3.08</v>
+      </c>
+      <c r="L6">
+        <v>-0.03869346733668342</v>
+      </c>
+      <c r="M6">
+        <v>-0</v>
+      </c>
+      <c r="N6">
+        <v>-0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>-0</v>
+      </c>
+      <c r="Q6">
+        <v>-0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>3.31</v>
+      </c>
+      <c r="V6">
+        <v>0.1614634146341463</v>
+      </c>
+      <c r="W6">
+        <v>-0.09967637540453075</v>
+      </c>
+      <c r="X6">
+        <v>0.2779106369732995</v>
+      </c>
+      <c r="Y6">
+        <v>-0.3775870123778302</v>
+      </c>
+      <c r="Z6">
+        <v>1.494274450910456</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0.1427711562217261</v>
+      </c>
+      <c r="AC6">
+        <v>-0.1427711562217261</v>
+      </c>
+      <c r="AD6">
+        <v>37.7</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>37.7</v>
+      </c>
+      <c r="AG6">
+        <v>34.39</v>
+      </c>
+      <c r="AH6">
+        <v>0.647766323024055</v>
+      </c>
+      <c r="AI6">
+        <v>0.417960088691796</v>
+      </c>
+      <c r="AJ6">
+        <v>0.6265257788303881</v>
+      </c>
+      <c r="AK6">
+        <v>0.3957877776499022</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Sri Lanka</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>Amãna Takaful Life PLC (COSE:ATLL.N0000)</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Insurance (Life)</t>
         </is>
       </c>
-      <c r="G6">
-        <v>-0.04781199351701783</v>
-      </c>
-      <c r="H6">
-        <v>-0.04781199351701783</v>
-      </c>
-      <c r="I6">
-        <v>-0.04408427876823339</v>
-      </c>
-      <c r="J6">
-        <v>-0.04408427876823339</v>
-      </c>
-      <c r="K6">
-        <v>-0.295</v>
-      </c>
-      <c r="L6">
-        <v>-0.04781199351701783</v>
-      </c>
-      <c r="M6">
-        <v>-0</v>
-      </c>
-      <c r="N6">
-        <v>-0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>-0</v>
-      </c>
-      <c r="Q6">
-        <v>-0</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <v>0.405</v>
-      </c>
-      <c r="V6">
-        <v>0.2098445595854923</v>
-      </c>
-      <c r="W6">
-        <v>-0.09104938271604937</v>
-      </c>
-      <c r="X6">
-        <v>0.1397908804055805</v>
-      </c>
-      <c r="Y6">
-        <v>-0.2308402631216298</v>
-      </c>
-      <c r="Z6">
-        <v>2.082348970637867</v>
-      </c>
-      <c r="AA6">
-        <v>-0.09179885251434357</v>
-      </c>
-      <c r="AB6">
-        <v>0.1253416728012106</v>
-      </c>
-      <c r="AC6">
-        <v>-0.2171405253155542</v>
-      </c>
-      <c r="AD6">
-        <v>0.43</v>
-      </c>
-      <c r="AE6">
-        <v>0</v>
-      </c>
-      <c r="AF6">
-        <v>0.43</v>
-      </c>
-      <c r="AG6">
-        <v>0.02499999999999997</v>
-      </c>
-      <c r="AH6">
-        <v>0.1822033898305085</v>
-      </c>
-      <c r="AI6">
-        <v>0.1356466876971609</v>
-      </c>
-      <c r="AJ6">
-        <v>0.01278772378516622</v>
-      </c>
-      <c r="AK6">
-        <v>0.009041591320072321</v>
-      </c>
-      <c r="AL6">
-        <v>0.017</v>
-      </c>
-      <c r="AM6">
-        <v>0.017</v>
-      </c>
-      <c r="AN6">
-        <v>-1.699604743083004</v>
-      </c>
-      <c r="AO6">
-        <v>-16</v>
-      </c>
-      <c r="AP6">
-        <v>-0.09881422924901173</v>
-      </c>
-      <c r="AQ6">
-        <v>-16</v>
+      <c r="G7">
+        <v>-0.01843478260869565</v>
+      </c>
+      <c r="H7">
+        <v>-0.01843478260869565</v>
+      </c>
+      <c r="I7">
+        <v>-0.02504347826086956</v>
+      </c>
+      <c r="J7">
+        <v>-0.02504347826086956</v>
+      </c>
+      <c r="K7">
+        <v>-0.176</v>
+      </c>
+      <c r="L7">
+        <v>-0.03060869565217391</v>
+      </c>
+      <c r="M7">
+        <v>-0</v>
+      </c>
+      <c r="N7">
+        <v>-0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>-0</v>
+      </c>
+      <c r="Q7">
+        <v>-0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0.229</v>
+      </c>
+      <c r="V7">
+        <v>0.09346938775510204</v>
+      </c>
+      <c r="W7">
+        <v>-0.06423357664233575</v>
+      </c>
+      <c r="X7">
+        <v>0.1413494804821219</v>
+      </c>
+      <c r="Y7">
+        <v>-0.2055830571244577</v>
+      </c>
+      <c r="Z7">
+        <v>2.079566003616636</v>
+      </c>
+      <c r="AA7">
+        <v>-0.05207956600361662</v>
+      </c>
+      <c r="AB7">
+        <v>0.1289440137740778</v>
+      </c>
+      <c r="AC7">
+        <v>-0.1810235797776944</v>
+      </c>
+      <c r="AD7">
+        <v>0.485</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0.485</v>
+      </c>
+      <c r="AG7">
+        <v>0.256</v>
+      </c>
+      <c r="AH7">
+        <v>0.1652470187393526</v>
+      </c>
+      <c r="AI7">
+        <v>0.1603305785123967</v>
+      </c>
+      <c r="AJ7">
+        <v>0.09460458240946044</v>
+      </c>
+      <c r="AK7">
+        <v>0.09155937052932761</v>
+      </c>
+      <c r="AL7">
+        <v>0.045</v>
+      </c>
+      <c r="AM7">
+        <v>0.045</v>
+      </c>
+      <c r="AN7">
+        <v>-3.88</v>
+      </c>
+      <c r="AO7">
+        <v>-3.2</v>
+      </c>
+      <c r="AP7">
+        <v>-2.048</v>
+      </c>
+      <c r="AQ7">
+        <v>-3.2</v>
       </c>
     </row>
   </sheetData>
